--- a/analysis/corners_analysis/coners_results.xlsx
+++ b/analysis/corners_analysis/coners_results.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\repoman\taupeli\analysis\corners_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D92569-2556-468D-B34D-1D089CBF9C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B7142-E50E-4139-9837-6C3D30183213}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1128" yWindow="3936" windowWidth="20340" windowHeight="18852" xr2:uid="{106F7FF0-A40A-494A-A547-8C421C70A689}"/>
+    <workbookView xWindow="13428" yWindow="8820" windowWidth="25524" windowHeight="15396" activeTab="1" xr2:uid="{106F7FF0-A40A-494A-A547-8C421C70A689}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="44">
   <si>
     <t>n_subjects</t>
   </si>
@@ -84,6 +86,90 @@
   </si>
   <si>
     <t>std_startpos_differ</t>
+  </si>
+  <si>
+    <t>12s</t>
+  </si>
+  <si>
+    <t>34s</t>
+  </si>
+  <si>
+    <t>23s</t>
+  </si>
+  <si>
+    <t>41s</t>
+  </si>
+  <si>
+    <t>24s</t>
+  </si>
+  <si>
+    <t>13s</t>
+  </si>
+  <si>
+    <t>abs_ttcdiff_norm</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>tot_separation_norm</t>
+  </si>
+  <si>
+    <t>delta_xf_end_norm</t>
+  </si>
+  <si>
+    <t>delta_vf_norm</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>stagger</t>
+  </si>
+  <si>
+    <t>n_trials</t>
+  </si>
+  <si>
+    <t>reply_ttc_time</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>min_v</t>
+  </si>
+  <si>
+    <t>max_v</t>
+  </si>
+  <si>
+    <t>predictors</t>
+  </si>
+  <si>
+    <t>simple regression analysis,  random intercepts for subjects</t>
+  </si>
+  <si>
+    <t>12 sig</t>
+  </si>
+  <si>
+    <t>34 sig</t>
+  </si>
+  <si>
+    <t>23 sig</t>
+  </si>
+  <si>
+    <t>41 sig</t>
+  </si>
+  <si>
+    <t>24 sig</t>
+  </si>
+  <si>
+    <t>13 sig</t>
+  </si>
+  <si>
+    <t>(Intercept)</t>
+  </si>
+  <si>
+    <t>multiregression, random intercepts for subjects</t>
   </si>
 </sst>
 </file>
@@ -125,9 +211,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,7 +301,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -780,7 +867,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="682017360"/>
@@ -840,7 +927,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="682021296"/>
@@ -882,7 +969,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -919,7 +1006,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2177,7 +2264,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2187,7 +2274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95640670-0DE0-4CB7-B0F5-CC08B994307A}">
   <dimension ref="A2:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
@@ -2478,4 +2565,702 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76052EEF-F0EB-474D-AC59-0730AAEDB68C}">
+  <dimension ref="B2:N13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0.879135470808311</v>
+      </c>
+      <c r="D5">
+        <v>0.87083835217503003</v>
+      </c>
+      <c r="E5">
+        <v>0.862271069024522</v>
+      </c>
+      <c r="F5">
+        <v>0.85781199666925301</v>
+      </c>
+      <c r="G5">
+        <v>0.77396941798864305</v>
+      </c>
+      <c r="H5">
+        <v>0.82768346658131897</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>-0.56369984722255895</v>
+      </c>
+      <c r="D6">
+        <v>-0.258427580730207</v>
+      </c>
+      <c r="E6">
+        <v>-0.30953182634099802</v>
+      </c>
+      <c r="F6">
+        <v>-0.231718204347311</v>
+      </c>
+      <c r="G6">
+        <v>-0.28973870099597399</v>
+      </c>
+      <c r="H6">
+        <v>-0.26472265669696798</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>1.15124062401748</v>
+      </c>
+      <c r="D7">
+        <v>1.28422252448008</v>
+      </c>
+      <c r="E7">
+        <v>0.93104529531054103</v>
+      </c>
+      <c r="F7">
+        <v>0.94156547941923596</v>
+      </c>
+      <c r="G7">
+        <v>0.93030449653165403</v>
+      </c>
+      <c r="H7">
+        <v>0.82127743748539295</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8">
+        <v>7.7076439888177195E-2</v>
+      </c>
+      <c r="D8">
+        <v>-2.4487578268588901E-2</v>
+      </c>
+      <c r="E8">
+        <v>0.15807062406599601</v>
+      </c>
+      <c r="F8">
+        <v>0.13372791499956599</v>
+      </c>
+      <c r="G8">
+        <v>0.14058852621658999</v>
+      </c>
+      <c r="H8">
+        <v>0.20746011257518199</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>-0.38619461329735499</v>
+      </c>
+      <c r="D9">
+        <v>-0.61843813943644899</v>
+      </c>
+      <c r="E9">
+        <v>-7.4082979372550595E-2</v>
+      </c>
+      <c r="F9">
+        <v>-1.8115658648844998E-2</v>
+      </c>
+      <c r="G9">
+        <v>-0.23749923238279499</v>
+      </c>
+      <c r="H9">
+        <v>-7.1029453319325697E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1.16004479815091E-4</v>
+      </c>
+      <c r="D10">
+        <v>1.8271392617130399E-4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4.4332030824235703E-5</v>
+      </c>
+      <c r="F10">
+        <v>1.6678351346984701E-4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>5.1753108503481201E-5</v>
+      </c>
+      <c r="H10">
+        <v>3.7899371494480702E-4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>-0.16381673813779701</v>
+      </c>
+      <c r="D11">
+        <v>-0.20226819560524001</v>
+      </c>
+      <c r="E11">
+        <v>-7.8059270889209095E-2</v>
+      </c>
+      <c r="F11">
+        <v>-0.12709666683304599</v>
+      </c>
+      <c r="G11">
+        <v>-0.206554412006723</v>
+      </c>
+      <c r="H11">
+        <v>-6.5627136883838103E-2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>2.9694525773101299</v>
+      </c>
+      <c r="D12">
+        <v>3.3933075170935498</v>
+      </c>
+      <c r="E12">
+        <v>1.25848264455493</v>
+      </c>
+      <c r="F12">
+        <v>1.73705526661901</v>
+      </c>
+      <c r="G12">
+        <v>2.8675175836354998</v>
+      </c>
+      <c r="H12">
+        <v>1.41820535142774</v>
+      </c>
+      <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>2.08065263579573</v>
+      </c>
+      <c r="D13">
+        <v>1.6060698817136301</v>
+      </c>
+      <c r="E13">
+        <v>1.6577194446665</v>
+      </c>
+      <c r="F13">
+        <v>1.7958601944829899</v>
+      </c>
+      <c r="G13">
+        <v>2.2675557919115299</v>
+      </c>
+      <c r="H13">
+        <v>1.9085010560156499</v>
+      </c>
+      <c r="I13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952424B0-8EB2-4B05-9415-0D2B4CC2CA13}">
+  <dimension ref="B2:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="B2:H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>41</v>
+      </c>
+      <c r="G4">
+        <v>24</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5">
+        <v>1.84607318421392</v>
+      </c>
+      <c r="D5">
+        <v>2.17945529631035</v>
+      </c>
+      <c r="E5">
+        <v>1.62917344216485</v>
+      </c>
+      <c r="F5">
+        <v>1.65927804669076</v>
+      </c>
+      <c r="G5">
+        <v>1.88382565300991</v>
+      </c>
+      <c r="H5">
+        <v>1.8848513836107701</v>
+      </c>
+      <c r="I5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.302668862293754</v>
+      </c>
+      <c r="D6">
+        <v>0.44158305607281101</v>
+      </c>
+      <c r="E6">
+        <v>0.32021656901831702</v>
+      </c>
+      <c r="F6">
+        <v>0.32222069281166599</v>
+      </c>
+      <c r="G6">
+        <v>0.14984738756208901</v>
+      </c>
+      <c r="H6">
+        <v>0.27320729750421302</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7">
+        <v>-0.47826568063137398</v>
+      </c>
+      <c r="D7">
+        <v>-0.19928693794476399</v>
+      </c>
+      <c r="E7">
+        <v>-0.24364104379868501</v>
+      </c>
+      <c r="F7">
+        <v>-0.14157162882978799</v>
+      </c>
+      <c r="G7">
+        <v>-0.16268232317094899</v>
+      </c>
+      <c r="H7">
+        <v>-0.11337755807412001</v>
+      </c>
+      <c r="I7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>1.4230069507128</v>
+      </c>
+      <c r="D8">
+        <v>1.3809326294153501</v>
+      </c>
+      <c r="E8">
+        <v>1.1988989823818701</v>
+      </c>
+      <c r="F8">
+        <v>1.16197445406491</v>
+      </c>
+      <c r="G8">
+        <v>1.2614558229478501</v>
+      </c>
+      <c r="H8">
+        <v>1.1201585737606199</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0.64493317963436403</v>
+      </c>
+      <c r="D9">
+        <v>0.43893843770973301</v>
+      </c>
+      <c r="E9">
+        <v>0.58048479736149405</v>
+      </c>
+      <c r="F9">
+        <v>0.52476106336970196</v>
+      </c>
+      <c r="G9">
+        <v>0.71470333210349302</v>
+      </c>
+      <c r="H9">
+        <v>0.65116935902211304</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>-0.192570428752528</v>
+      </c>
+      <c r="D10">
+        <v>-0.33544711724762299</v>
+      </c>
+      <c r="E10">
+        <v>0.15721181685064001</v>
+      </c>
+      <c r="F10">
+        <v>0.15775306079071699</v>
+      </c>
+      <c r="G10">
+        <v>-7.8151659269099505E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.98868907813444E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>